--- a/translation-apis/Semantex-Translatoin.xlsx
+++ b/translation-apis/Semantex-Translatoin.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27823"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99667A5F-D44A-4592-95A4-EFD8CD5ABB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{871D71FF-3694-47C0-A1D1-0666A2D6A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,15 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>TRANS_ES</t>
-  </si>
-  <si>
-    <t>TRANS_TL</t>
+    <t>TRANS: Spanish</t>
+  </si>
+  <si>
+    <t>TRANS: Tagalog</t>
   </si>
   <si>
     <t>Important Notice regarding your coverage</t>
@@ -48,32 +49,114 @@
     <t>Aviso importante respecto a su cobertura</t>
   </si>
   <si>
-    <t>Mahalagang Abiso hinggil sa iyong coverage</t>
-  </si>
-  <si>
-    <t>If you are an active employee, terminated employee, retiree or dependent who may be faced with losing all coverage or even a portion of your coverage under your employer’s Group life plan(s), you and/or your dependents may be eligible to continue the lost amount of coverage without submitting evidence of good health._x000D_</t>
+    <t>Mahalagang Paunawa tungkol sa iyong coverage</t>
+  </si>
+  <si>
+    <t>If you are an active employee, terminated employee, retiree or dependent who may be faced with losing all coverage or even a portion of your coverage under your employer’s Group life plan(s), you and/or your dependents may be eligible to continue the lost amount of coverage without submitting evidence of good health.</t>
   </si>
   <si>
     <t>Si usted es un empleado activo, empleado despedido, jubilado o dependiente que puede enfrentarse a la pérdida de toda la cobertura o incluso una parte de su cobertura bajo los planes de seguro de vida colectivo de su empleador, usted y/o sus dependientes pueden ser elegibles para continuar con la cantidad de cobertura perdida sin presentar evidencia de buena salud.</t>
   </si>
   <si>
-    <t>Kung ikaw ay isang aktibong empleyado, natanggal na empleyado, retirado o dependente na maaaring makaharap sa pagkawala ng lahat ng coverage o kahit isang bahagi ng iyong coverage sa ilalim ng Group life plan(s) ng iyong employer, ikaw at/o ang iyong mga dependente ay maaaring magpatuloy sa nawalang halaga ng coverage nang hindi nagpapasa ng ebidensya ng mabuting kalusugan.</t>
+    <t>Kung ikaw ay isang aktibong empleyado, natanggal na empleyado, retirado o dependente na maaaring makaharap sa pagkawala ng lahat ng coverage o kahit na isang bahagi ng iyong coverage sa ilalim ng Group life plan(s) ng iyong employer, ikaw at/o ang iyong mga dependente ay maaaring karapat-dapat na ipagpatuloy ang nawalang halaga ng coverage nang hindi nagpapasa ng ebidensya ng mabuting kalusugan.</t>
   </si>
   <si>
     <t>You are receiving this notice as a result of experiencing one of the following events: your employment status has changed, marital status has changed, you or a dependent has experienced an age reduction or maximum age limit, you have retired or you have reached the end of an employer sponsored continuation provision.</t>
   </si>
   <si>
-    <t>Está recibiendo esta notificación como resultado de experimentar uno de los siguientes eventos: su estado de empleo ha cambiado, el estado civil ha cambiado, usted o un dependiente ha experimentado una reducción de edad o límite de edad máxima, se ha jubilado o ha llegado al final de una disposición de continuación patrocinada por el empleador.</t>
-  </si>
-  <si>
-    <t>Tumatanggap ka ng abisong ito bilang resulta ng pagkakaranas ng isa sa mga sumusunod na pangyayari: nagbago ang iyong katayuan sa trabaho, nagbago ang iyong katayuan sa kasal, ikaw o isang depende ay nakaranas ng pagbabawas ng edad o limitasyon sa maximum na edad, nagretiro ka o nakamit mo na ang dulo ng isang probisyon na patuloy na sinusuportahan ng iyong employer.</t>
+    <t>Está recibiendo este aviso como resultado de experimentar uno de los siguientes eventos: su estado de empleo ha cambiado, el estado civil ha cambiado, usted o un dependiente ha experimentado una reducción de edad o límite de edad máxima, se ha jubilado o ha llegado al final de una disposición de continuación patrocinada por el empleador.</t>
+  </si>
+  <si>
+    <t>Tumatanggap ka ng abisong ito bilang resulta ng pagkakaranas ng isa sa mga sumusunod na pangyayari: nagbago ang iyong katayuan sa trabaho, nagbago ang iyong katayuan sa kasal, ikaw o isang depende ay nakaranas ng pagbabawas ng edad o limitasyon sa pinakamataas na edad, nagretiro ka o nakarating ka sa dulo ng isang probisyon na itinuloy ng iyong employer.</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text 2</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>The translation accurately conveys the meaning of the source text without any additions or omissions. It maintains the core entities and the overall message.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Important Notice regarding your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>dependents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>The translation is not accurate as it changes the meaning of the source text by replacing "dependents" with "coverage". Therefore, it is not a good translation.</t>
+  </si>
+  <si>
+    <t>The translation accurately conveys the meaning of the source text without any additions or omissions. The core entities and the overall message are preserved.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">If you are an active employee, terminated employee, retiree or dependent who may be faced with losing all coverage or even a portion of your coverage under your employer’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Personal Benefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> plan(s), you and/or your dependents may be eligible to continue the lost amount of coverage without submitting evidence of good health.</t>
+    </r>
+  </si>
+  <si>
+    <t>The translation diverges from the source text by incorrectly translating "Personal Benefits plan(s)" to "planes de seguro de vida colectivo". This changes the meaning and context of the original text, making it a bad translation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,11 +166,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -96,12 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -115,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -298,53 +394,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,60 +806,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="53.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="67" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="161.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="143.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E40867F-5ED9-462F-BEDC-9F2B1181E91A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="54">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
+      <c r="C2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="129.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="54">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="161.25">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="121.5" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
+    <row r="5" spans="1:4" ht="161.25">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
